--- a/KA_Data/Lockage.xlsx
+++ b/KA_Data/Lockage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Canals\KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDEBF8E-FCD3-4D41-A37E-FA897C46683E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B911A9-D35A-4F41-BB24-43FDEDF97A64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4131F1DD-B8DA-444D-9E84-BD2BFA193964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4131F1DD-B8DA-444D-9E84-BD2BFA193964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Lock 13, Bath</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>M1 Spearmans</t>
+  </si>
+  <si>
+    <t>M2 Spearmans</t>
+  </si>
+  <si>
+    <t>M3 Spearmans</t>
   </si>
 </sst>
 </file>
@@ -456,15 +465,16 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
@@ -482,7 +492,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -516,8 +526,17 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -551,6 +570,18 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <f>(H3-I3)^2</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>(H3-J3)^2</f>
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <f>(H3-K3)^2</f>
+        <v>9</v>
+      </c>
       <c r="O3">
         <v>291</v>
       </c>
@@ -558,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -592,6 +623,18 @@
       <c r="K4">
         <v>4</v>
       </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="0">(H4-I4)^2</f>
+        <v>36</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M12" si="1">(H4-J4)^2</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="2">(H4-K4)^2</f>
+        <v>9</v>
+      </c>
       <c r="O4">
         <v>276</v>
       </c>
@@ -599,7 +642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -633,6 +676,18 @@
       <c r="K5">
         <v>2</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="O5">
         <v>253</v>
       </c>
@@ -640,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -674,6 +729,18 @@
       <c r="K6">
         <v>3</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="O6">
         <v>247</v>
       </c>
@@ -681,7 +748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -715,6 +782,18 @@
       <c r="K7">
         <v>7</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="O7">
         <v>217</v>
       </c>
@@ -722,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -756,6 +835,18 @@
       <c r="K8">
         <v>5</v>
       </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="O8">
         <v>210</v>
       </c>
@@ -763,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -797,6 +888,18 @@
       <c r="K9">
         <v>10</v>
       </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="O9">
         <v>214</v>
       </c>
@@ -804,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -838,6 +941,18 @@
       <c r="K10">
         <v>6</v>
       </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
       <c r="O10">
         <v>192</v>
       </c>
@@ -845,7 +960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -879,6 +994,18 @@
       <c r="K11">
         <v>9</v>
       </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="O11">
         <v>114</v>
       </c>
@@ -886,7 +1013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -920,6 +1047,18 @@
       <c r="K12">
         <v>8</v>
       </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="O12">
         <v>91</v>
       </c>
@@ -927,7 +1066,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>1-SUM(L3:L12)/(10*99)</f>
+        <v>0.94141414141414137</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:N13" si="3">1-SUM(M3:M12)/(10*99)</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I16" s="1" t="s">
         <v>11</v>
       </c>

--- a/KA_Data/Lockage.xlsx
+++ b/KA_Data/Lockage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Canals\KA_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B911A9-D35A-4F41-BB24-43FDEDF97A64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A92893-555C-49A3-BE39-A1B027093B4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4131F1DD-B8DA-444D-9E84-BD2BFA193964}"/>
+    <workbookView xWindow="-12" yWindow="0" windowWidth="11532" windowHeight="8964" xr2:uid="{4131F1DD-B8DA-444D-9E84-BD2BFA193964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Lock 13, Bath</t>
   </si>
@@ -88,15 +88,6 @@
   </si>
   <si>
     <t>Order</t>
-  </si>
-  <si>
-    <t>M1 Spearmans</t>
-  </si>
-  <si>
-    <t>M2 Spearmans</t>
-  </si>
-  <si>
-    <t>M3 Spearmans</t>
   </si>
 </sst>
 </file>
@@ -465,16 +456,15 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
@@ -492,7 +482,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -526,17 +516,8 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -556,7 +537,7 @@
         <v>1033</v>
       </c>
       <c r="G3">
-        <v>288</v>
+        <v>1493</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -570,18 +551,6 @@
       <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3">
-        <f>(H3-I3)^2</f>
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <f>(H3-J3)^2</f>
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <f>(H3-K3)^2</f>
-        <v>9</v>
-      </c>
       <c r="O3">
         <v>291</v>
       </c>
@@ -589,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -609,7 +578,7 @@
         <v>1015</v>
       </c>
       <c r="G4">
-        <v>234</v>
+        <v>1372</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -621,19 +590,7 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L12" si="0">(H4-I4)^2</f>
-        <v>36</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M12" si="1">(H4-J4)^2</f>
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N12" si="2">(H4-K4)^2</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>276</v>
@@ -642,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -662,7 +619,7 @@
         <v>553</v>
       </c>
       <c r="G5">
-        <v>254</v>
+        <v>968</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -674,19 +631,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>253</v>
@@ -695,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -715,7 +660,7 @@
         <v>480</v>
       </c>
       <c r="G6">
-        <v>250</v>
+        <v>876</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -727,19 +672,7 @@
         <v>4</v>
       </c>
       <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6">
         <v>247</v>
@@ -748,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -768,7 +701,7 @@
         <v>335</v>
       </c>
       <c r="G7">
-        <v>176</v>
+        <v>677</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -780,19 +713,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>217</v>
@@ -801,51 +722,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2521</v>
+      </c>
+      <c r="C8">
+        <v>2626</v>
+      </c>
+      <c r="D8">
+        <v>2519</v>
+      </c>
+      <c r="E8">
+        <v>339</v>
+      </c>
+      <c r="F8">
+        <v>406</v>
+      </c>
+      <c r="G8">
+        <v>512</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
         <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2317</v>
-      </c>
-      <c r="C8">
-        <v>2112</v>
-      </c>
-      <c r="D8">
-        <v>2227</v>
-      </c>
-      <c r="E8">
-        <v>365</v>
-      </c>
-      <c r="F8">
-        <v>305</v>
-      </c>
-      <c r="G8">
-        <v>216</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
       <c r="O8">
         <v>210</v>
@@ -854,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -874,7 +783,7 @@
         <v>238</v>
       </c>
       <c r="G9">
-        <v>75</v>
+        <v>510</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -886,19 +795,7 @@
         <v>8</v>
       </c>
       <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O9">
         <v>214</v>
@@ -907,51 +804,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2317</v>
+      </c>
+      <c r="C10">
+        <v>2112</v>
+      </c>
+      <c r="D10">
+        <v>2227</v>
+      </c>
+      <c r="E10">
+        <v>365</v>
+      </c>
+      <c r="F10">
+        <v>305</v>
+      </c>
+      <c r="G10">
+        <v>503</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1918</v>
-      </c>
-      <c r="C10">
-        <v>1905</v>
-      </c>
-      <c r="D10">
-        <v>1813</v>
-      </c>
-      <c r="E10">
-        <v>338</v>
-      </c>
-      <c r="F10">
-        <v>222</v>
-      </c>
-      <c r="G10">
-        <v>194</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
       <c r="J10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10">
         <v>192</v>
@@ -960,52 +845,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1918</v>
+      </c>
+      <c r="C11">
+        <v>1905</v>
+      </c>
+      <c r="D11">
+        <v>1813</v>
+      </c>
+      <c r="E11">
+        <v>338</v>
+      </c>
+      <c r="F11">
+        <v>222</v>
+      </c>
+      <c r="G11">
+        <v>426</v>
+      </c>
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>2521</v>
-      </c>
-      <c r="C11">
-        <v>2626</v>
-      </c>
-      <c r="D11">
-        <v>2519</v>
-      </c>
-      <c r="E11">
-        <v>339</v>
-      </c>
-      <c r="F11">
-        <v>406</v>
-      </c>
-      <c r="G11">
-        <v>144</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
       <c r="I11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <v>9</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
       <c r="O11">
         <v>114</v>
       </c>
@@ -1013,7 +886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1033,7 +906,7 @@
         <v>214</v>
       </c>
       <c r="G12">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="H12">
         <v>8</v>
@@ -1045,19 +918,7 @@
         <v>10</v>
       </c>
       <c r="K12">
-        <v>8</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O12">
         <v>91</v>
@@ -1066,21 +927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L13">
-        <f>1-SUM(L3:L12)/(10*99)</f>
-        <v>0.94141414141414137</v>
-      </c>
-      <c r="M13">
-        <f t="shared" ref="M13:N13" si="3">1-SUM(M3:M12)/(10*99)</f>
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
-        <v>0.9555555555555556</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +935,7 @@
   </sheetData>
   <autoFilter ref="A2:K12" xr:uid="{0AEB7AE6-31DC-4408-BF52-7942321E69DE}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K12">
-      <sortCondition ref="A2:A12"/>
+      <sortCondition descending="1" ref="G2:G12"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
